--- a/SchedulingData/dynamic14/pso/scheduling1_2.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.76000000000001</v>
+        <v>56.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.784</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.78</v>
+        <v>50.2</v>
       </c>
       <c r="E3" t="n">
-        <v>25.892</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>57.12</v>
+        <v>39.5</v>
       </c>
       <c r="E4" t="n">
-        <v>25.968</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="5">
@@ -523,55 +523,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68.76000000000001</v>
+        <v>39.5</v>
       </c>
       <c r="D5" t="n">
-        <v>132.2</v>
+        <v>108.16</v>
       </c>
       <c r="E5" t="n">
-        <v>23.04</v>
+        <v>23.984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>48.3</v>
+        <v>99.8</v>
       </c>
       <c r="E6" t="n">
-        <v>26.36</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>132.2</v>
+        <v>99.8</v>
       </c>
       <c r="D7" t="n">
-        <v>205.1</v>
+        <v>149.32</v>
       </c>
       <c r="E7" t="n">
-        <v>18.36</v>
+        <v>21.848</v>
       </c>
     </row>
     <row r="8">
@@ -580,131 +580,131 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62.78</v>
+        <v>50.2</v>
       </c>
       <c r="D8" t="n">
-        <v>128.02</v>
+        <v>100.08</v>
       </c>
       <c r="E8" t="n">
-        <v>22.988</v>
+        <v>21.832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>52.8</v>
+        <v>52.66</v>
       </c>
       <c r="E9" t="n">
-        <v>25.92</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>48.3</v>
+        <v>108.16</v>
       </c>
       <c r="D10" t="n">
-        <v>94.36</v>
+        <v>175.96</v>
       </c>
       <c r="E10" t="n">
-        <v>22.884</v>
+        <v>19.824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>205.1</v>
+        <v>100.08</v>
       </c>
       <c r="D11" t="n">
-        <v>256.46</v>
+        <v>166.14</v>
       </c>
       <c r="E11" t="n">
-        <v>15.864</v>
+        <v>18.816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>166.14</v>
       </c>
       <c r="D12" t="n">
-        <v>63.2</v>
+        <v>234.14</v>
       </c>
       <c r="E12" t="n">
-        <v>26.88</v>
+        <v>14.136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>128.02</v>
+        <v>52.66</v>
       </c>
       <c r="D13" t="n">
-        <v>204.22</v>
+        <v>132.46</v>
       </c>
       <c r="E13" t="n">
-        <v>18.488</v>
+        <v>22.544</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>63.2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>123.1</v>
+        <v>42.1</v>
       </c>
       <c r="E14" t="n">
-        <v>22.02</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>94.36</v>
+        <v>132.46</v>
       </c>
       <c r="D15" t="n">
-        <v>173.96</v>
+        <v>189.56</v>
       </c>
       <c r="E15" t="n">
-        <v>18.564</v>
+        <v>18.464</v>
       </c>
     </row>
     <row r="16">
@@ -732,150 +732,150 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>57.12</v>
+        <v>42.1</v>
       </c>
       <c r="D16" t="n">
-        <v>90.88</v>
+        <v>98.16</v>
       </c>
       <c r="E16" t="n">
-        <v>23.232</v>
+        <v>24.004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>123.1</v>
+        <v>175.96</v>
       </c>
       <c r="D17" t="n">
-        <v>192.4</v>
+        <v>225.92</v>
       </c>
       <c r="E17" t="n">
-        <v>18.18</v>
+        <v>17.448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>192.4</v>
+        <v>98.16</v>
       </c>
       <c r="D18" t="n">
-        <v>258.3</v>
+        <v>208.86</v>
       </c>
       <c r="E18" t="n">
-        <v>15.22</v>
+        <v>19.504</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>52.8</v>
+        <v>189.56</v>
       </c>
       <c r="D19" t="n">
-        <v>107.88</v>
+        <v>233.4</v>
       </c>
       <c r="E19" t="n">
-        <v>22.532</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>204.22</v>
+        <v>233.4</v>
       </c>
       <c r="D20" t="n">
-        <v>251.84</v>
+        <v>299.12</v>
       </c>
       <c r="E20" t="n">
-        <v>15.836</v>
+        <v>11.728</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>173.96</v>
+        <v>149.32</v>
       </c>
       <c r="D21" t="n">
-        <v>222.22</v>
+        <v>196.42</v>
       </c>
       <c r="E21" t="n">
-        <v>14.868</v>
+        <v>18.768</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>256.46</v>
+        <v>196.42</v>
       </c>
       <c r="D22" t="n">
-        <v>300.32</v>
+        <v>251.4</v>
       </c>
       <c r="E22" t="n">
-        <v>12.608</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>107.88</v>
+        <v>234.14</v>
       </c>
       <c r="D23" t="n">
-        <v>182</v>
+        <v>281.38</v>
       </c>
       <c r="E23" t="n">
-        <v>18.22</v>
+        <v>10.552</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>182</v>
+        <v>56.2</v>
       </c>
       <c r="D24" t="n">
-        <v>236.9</v>
+        <v>114.46</v>
       </c>
       <c r="E24" t="n">
-        <v>14.84</v>
+        <v>22.884</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>236.9</v>
+        <v>114.46</v>
       </c>
       <c r="D25" t="n">
-        <v>294.8</v>
+        <v>195.68</v>
       </c>
       <c r="E25" t="n">
-        <v>10.68</v>
+        <v>18.852</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>294.8</v>
+        <v>195.68</v>
       </c>
       <c r="D26" t="n">
-        <v>332.06</v>
+        <v>246.58</v>
       </c>
       <c r="E26" t="n">
-        <v>8.084</v>
+        <v>15.892</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>251.84</v>
+        <v>251.4</v>
       </c>
       <c r="D27" t="n">
-        <v>298.94</v>
+        <v>303.6</v>
       </c>
       <c r="E27" t="n">
-        <v>12.756</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="28">
@@ -960,150 +960,150 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>300.32</v>
+        <v>225.92</v>
       </c>
       <c r="D28" t="n">
-        <v>363.42</v>
+        <v>286.92</v>
       </c>
       <c r="E28" t="n">
-        <v>10.408</v>
+        <v>12.968</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>363.42</v>
+        <v>208.86</v>
       </c>
       <c r="D29" t="n">
-        <v>421.82</v>
+        <v>237.26</v>
       </c>
       <c r="E29" t="n">
-        <v>6.688</v>
+        <v>17.304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>332.06</v>
+        <v>237.26</v>
       </c>
       <c r="D30" t="n">
-        <v>380.5</v>
+        <v>280.82</v>
       </c>
       <c r="E30" t="n">
-        <v>4.86</v>
+        <v>14.568</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>222.22</v>
+        <v>303.6</v>
       </c>
       <c r="D31" t="n">
-        <v>303.44</v>
+        <v>370.02</v>
       </c>
       <c r="E31" t="n">
-        <v>10.836</v>
+        <v>7.268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>90.88</v>
+        <v>286.92</v>
       </c>
       <c r="D32" t="n">
-        <v>160.56</v>
+        <v>330.4</v>
       </c>
       <c r="E32" t="n">
-        <v>19.384</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>160.56</v>
+        <v>330.4</v>
       </c>
       <c r="D33" t="n">
-        <v>251.78</v>
+        <v>399.18</v>
       </c>
       <c r="E33" t="n">
-        <v>15.352</v>
+        <v>6.992</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>421.82</v>
+        <v>246.58</v>
       </c>
       <c r="D34" t="n">
-        <v>475.42</v>
+        <v>300.02</v>
       </c>
       <c r="E34" t="n">
-        <v>3.928</v>
+        <v>12.668</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>298.94</v>
+        <v>399.18</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7</v>
+        <v>442.64</v>
       </c>
       <c r="E35" t="n">
-        <v>10.02</v>
+        <v>3.776</v>
       </c>
     </row>
     <row r="36">
@@ -1112,74 +1112,74 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>258.3</v>
+        <v>370.02</v>
       </c>
       <c r="D36" t="n">
-        <v>322.76</v>
+        <v>423.62</v>
       </c>
       <c r="E36" t="n">
-        <v>12.844</v>
+        <v>3.548</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>380.5</v>
+        <v>281.38</v>
       </c>
       <c r="D37" t="n">
-        <v>437.54</v>
+        <v>325.04</v>
       </c>
       <c r="E37" t="n">
-        <v>1.276</v>
+        <v>7.816</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>437.54</v>
+        <v>299.12</v>
       </c>
       <c r="D38" t="n">
-        <v>516.6900000000001</v>
+        <v>372.36</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>8.504</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>251.78</v>
+        <v>300.02</v>
       </c>
       <c r="D39" t="n">
-        <v>342.68</v>
+        <v>348.9</v>
       </c>
       <c r="E39" t="n">
-        <v>10.872</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="40">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>303.44</v>
+        <v>372.36</v>
       </c>
       <c r="D40" t="n">
-        <v>354.9</v>
+        <v>445.06</v>
       </c>
       <c r="E40" t="n">
-        <v>7.82</v>
+        <v>4.864</v>
       </c>
     </row>
     <row r="41">
@@ -1207,74 +1207,74 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>516.6900000000001</v>
+        <v>348.9</v>
       </c>
       <c r="D41" t="n">
-        <v>579.29</v>
+        <v>396.52</v>
       </c>
       <c r="E41" t="n">
-        <v>25.92</v>
+        <v>7.728</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>337.7</v>
+        <v>280.82</v>
       </c>
       <c r="D42" t="n">
-        <v>407.8</v>
+        <v>349.46</v>
       </c>
       <c r="E42" t="n">
-        <v>6.6</v>
+        <v>10.824</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>354.9</v>
+        <v>442.64</v>
       </c>
       <c r="D43" t="n">
-        <v>408.24</v>
+        <v>483.9</v>
       </c>
       <c r="E43" t="n">
-        <v>4.596</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>342.68</v>
+        <v>483.9</v>
       </c>
       <c r="D44" t="n">
-        <v>406.42</v>
+        <v>573.04</v>
       </c>
       <c r="E44" t="n">
-        <v>7.128</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -1283,41 +1283,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>407.8</v>
+        <v>325.04</v>
       </c>
       <c r="D45" t="n">
-        <v>473.4</v>
+        <v>402.42</v>
       </c>
       <c r="E45" t="n">
-        <v>2.64</v>
+        <v>3.708</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>408.24</v>
+        <v>402.42</v>
       </c>
       <c r="D46" t="n">
-        <v>486.82</v>
+        <v>467.66</v>
       </c>
       <c r="E46" t="n">
-        <v>1.348</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>486.82</v>
+        <v>467.66</v>
       </c>
       <c r="D47" t="n">
-        <v>580.62</v>
+        <v>557.55</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -1336,21 +1336,21 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>406.42</v>
+        <v>396.52</v>
       </c>
       <c r="D48" t="n">
-        <v>447.82</v>
+        <v>463.02</v>
       </c>
       <c r="E48" t="n">
-        <v>4.608</v>
+        <v>5.688</v>
       </c>
     </row>
     <row r="49">
@@ -1359,33 +1359,33 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>322.76</v>
+        <v>423.62</v>
       </c>
       <c r="D49" t="n">
-        <v>408.86</v>
+        <v>478.62</v>
       </c>
       <c r="E49" t="n">
-        <v>10.804</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>473.4</v>
+        <v>478.62</v>
       </c>
       <c r="D50" t="n">
-        <v>554.72</v>
+        <v>564.98</v>
       </c>
       <c r="E50" t="n">
         <v>30</v>
@@ -1393,78 +1393,78 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>554.72</v>
+        <v>564.98</v>
       </c>
       <c r="D51" t="n">
-        <v>618.6</v>
+        <v>608.1799999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>27.272</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>475.42</v>
+        <v>349.46</v>
       </c>
       <c r="D52" t="n">
-        <v>509.7</v>
+        <v>404.78</v>
       </c>
       <c r="E52" t="n">
-        <v>1.64</v>
+        <v>7.912</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>509.7</v>
+        <v>445.06</v>
       </c>
       <c r="D53" t="n">
-        <v>583.3200000000001</v>
+        <v>510.76</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>447.82</v>
+        <v>510.76</v>
       </c>
       <c r="D54" t="n">
-        <v>508.64</v>
+        <v>595.55</v>
       </c>
       <c r="E54" t="n">
-        <v>1.616</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -1473,36 +1473,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>508.64</v>
+        <v>404.78</v>
       </c>
       <c r="D55" t="n">
-        <v>601.8099999999999</v>
+        <v>476.4</v>
       </c>
       <c r="E55" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>2</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>pond23</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>618.6</v>
-      </c>
-      <c r="D56" t="n">
-        <v>673.8200000000001</v>
-      </c>
-      <c r="E56" t="n">
-        <v>24.36</v>
+        <v>3.88</v>
       </c>
     </row>
   </sheetData>
